--- a/ZLHLZQR_V2.0_IO_20181023_01.xlsx
+++ b/ZLHLZQR_V2.0_IO_20181023_01.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="463">
   <si>
     <t>IO</t>
   </si>
@@ -1698,6 +1698,10 @@
   </si>
   <si>
     <t>主抽水机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹气泵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2000,20 +2004,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2022,15 +2029,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,19 +2049,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,14 +2073,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2353,7 +2357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4928,10 +4932,10 @@
         <v>189</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="41" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4952,8 +4956,8 @@
         <v>189</v>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="51"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="16" t="s">
@@ -4972,8 +4976,8 @@
         <v>189</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="51"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="16" t="s">
@@ -4992,8 +4996,8 @@
         <v>189</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="51"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="16" t="s">
@@ -5012,8 +5016,8 @@
         <v>189</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="51"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="16" t="s">
@@ -5032,8 +5036,8 @@
         <v>189</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="51"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="16" t="s">
@@ -5052,8 +5056,8 @@
         <v>189</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="50"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8">
       <c r="D11" s="2"/>
@@ -5074,7 +5078,7 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="47" t="s">
         <v>378</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -5096,7 +5100,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="47"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="12" t="s">
         <v>405</v>
       </c>
@@ -5116,7 +5120,7 @@
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="12" t="s">
         <v>415</v>
       </c>
@@ -5136,7 +5140,7 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="47"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="12" t="s">
         <v>415</v>
       </c>
@@ -5156,7 +5160,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="12" t="s">
         <v>415</v>
       </c>
@@ -5176,7 +5180,7 @@
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="12" t="s">
         <v>421</v>
       </c>
@@ -5196,7 +5200,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="12" t="s">
         <v>423</v>
       </c>
@@ -5222,10 +5226,10 @@
         <v>188</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="56" t="s">
         <v>379</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="41" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5246,8 +5250,8 @@
         <v>188</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="50"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8">
       <c r="D22" s="2"/>
@@ -5324,10 +5328,10 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="41" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5346,8 +5350,8 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="16" t="s">
@@ -5364,8 +5368,8 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8">
       <c r="D30" s="2"/>
@@ -5385,8 +5389,8 @@
         <v>364</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="49" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="41" t="s">
         <v>393</v>
       </c>
       <c r="H31" s="16"/>
@@ -5405,8 +5409,8 @@
         <v>363</v>
       </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="50"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8">
@@ -5428,10 +5432,10 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="H34" s="46" t="s">
+      <c r="H34" s="47" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5450,8 +5454,8 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="47"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="12" t="s">
@@ -5468,8 +5472,8 @@
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="47"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="48"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="12" t="s">
@@ -5486,8 +5490,8 @@
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="47"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="12"/>
@@ -5496,8 +5500,8 @@
       <c r="D38" s="20"/>
       <c r="E38" s="12"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="47"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="12" t="s">
@@ -5509,15 +5513,15 @@
       <c r="C39" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="50" t="s">
         <v>332</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="47"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="12" t="s">
@@ -5529,13 +5533,13 @@
       <c r="C40" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="D40" s="53"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="12"/>
       <c r="F40" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="47"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="12" t="s">
@@ -5547,13 +5551,13 @@
       <c r="C41" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D41" s="53"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="12"/>
       <c r="F41" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="47"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="12" t="s">
@@ -5565,11 +5569,11 @@
       <c r="C42" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="12"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="47"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="12" t="s">
@@ -5581,13 +5585,13 @@
       <c r="C43" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="47" t="s">
         <v>327</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="47"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="12" t="s">
@@ -5599,11 +5603,11 @@
       <c r="C44" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="12"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="47"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="48"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="12" t="s">
@@ -5615,11 +5619,11 @@
       <c r="C45" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="12"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="47"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="12" t="s">
@@ -5631,11 +5635,11 @@
       <c r="C46" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="D46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="12"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="48"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="49"/>
     </row>
     <row r="47" spans="1:8">
       <c r="D47" s="2"/>
@@ -5656,10 +5660,10 @@
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="H48" s="49" t="s">
+      <c r="H48" s="41" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5678,8 +5682,8 @@
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="51"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="16" t="s">
@@ -5696,8 +5700,8 @@
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="50"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8">
       <c r="D51" s="2"/>
@@ -5718,7 +5722,7 @@
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="57" t="s">
         <v>382</v>
       </c>
       <c r="H52" s="13" t="s">
@@ -5740,7 +5744,7 @@
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="42"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8">
@@ -5758,7 +5762,7 @@
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="42"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="13" t="s">
         <v>406</v>
       </c>
@@ -5778,7 +5782,7 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="42"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8">
@@ -5788,7 +5792,7 @@
       <c r="D56" s="15"/>
       <c r="E56" s="12"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="42"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8">
@@ -5806,7 +5810,7 @@
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="42"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8">
@@ -5824,7 +5828,7 @@
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="42"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8">
@@ -5842,7 +5846,7 @@
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="42"/>
+      <c r="G59" s="57"/>
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8">
@@ -5860,7 +5864,7 @@
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="42"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8">
@@ -5878,7 +5882,7 @@
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="42"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8">
@@ -5896,7 +5900,7 @@
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="42"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8">
@@ -5914,7 +5918,7 @@
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="42"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8">
@@ -5932,7 +5936,7 @@
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="42"/>
+      <c r="G64" s="57"/>
       <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8">
@@ -5950,7 +5954,7 @@
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="42"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:8">
@@ -5968,7 +5972,7 @@
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="42"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:8">
@@ -5986,7 +5990,7 @@
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="42"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8">
@@ -6008,10 +6012,10 @@
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="49" t="s">
+      <c r="G69" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="H69" s="49" t="s">
+      <c r="H69" s="41" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6030,8 +6034,8 @@
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="18"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
     </row>
     <row r="71" spans="1:8">
       <c r="D71" s="2"/>
@@ -6047,15 +6051,15 @@
       <c r="C72" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="54" t="s">
         <v>205</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="18"/>
-      <c r="G72" s="49" t="s">
+      <c r="G72" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="H72" s="49" t="s">
+      <c r="H72" s="41" t="s">
         <v>415</v>
       </c>
     </row>
@@ -6069,11 +6073,11 @@
       <c r="C73" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D73" s="57"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="16"/>
       <c r="F73" s="18"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
     </row>
     <row r="74" spans="1:8">
       <c r="D74" s="2"/>
@@ -6089,15 +6093,15 @@
       <c r="C75" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="53" t="s">
         <v>169</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="18"/>
-      <c r="G75" s="49" t="s">
+      <c r="G75" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="H75" s="49" t="s">
+      <c r="H75" s="41" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6111,11 +6115,11 @@
       <c r="C76" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="55"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="16"/>
       <c r="F76" s="18"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" spans="1:8">
       <c r="D77" s="2"/>
@@ -6131,15 +6135,15 @@
       <c r="C78" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D78" s="56" t="s">
+      <c r="D78" s="54" t="s">
         <v>310</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="18"/>
-      <c r="G78" s="49" t="s">
+      <c r="G78" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="H78" s="58" t="s">
+      <c r="H78" s="44" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6153,11 +6157,11 @@
       <c r="C79" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D79" s="57"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="16"/>
       <c r="F79" s="18"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="59"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="45"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="16" t="s">
@@ -6174,8 +6178,8 @@
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="18"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="60"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="46"/>
     </row>
     <row r="81" spans="1:8">
       <c r="D81" s="2"/>
@@ -6195,13 +6199,13 @@
         <v>359</v>
       </c>
       <c r="E82" s="16"/>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="G82" s="49" t="s">
+      <c r="G82" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="H82" s="49" t="s">
+      <c r="H82" s="41" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6219,9 +6223,9 @@
         <v>360</v>
       </c>
       <c r="E83" s="16"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
     </row>
     <row r="84" spans="1:8">
       <c r="D84" s="2"/>
@@ -6229,21 +6233,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H4:H10"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H34:H46"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D72:D73"/>
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G34:G46"/>
@@ -6259,6 +6248,21 @@
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G52:G67"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H34:H46"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H75:H76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6340,10 +6344,10 @@
       <c r="F4" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="41" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6364,8 +6368,8 @@
       <c r="F5" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="50"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8">
       <c r="D6" s="2"/>
@@ -6389,13 +6393,13 @@
         <v>368</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="47" t="s">
         <v>403</v>
       </c>
     </row>
@@ -6414,8 +6418,8 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="65"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="47"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
@@ -6432,8 +6436,8 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="65"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="47"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
@@ -6449,9 +6453,9 @@
         <v>234</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="48"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8">
       <c r="D12" s="2"/>
@@ -6495,13 +6499,13 @@
         <v>265</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="47" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6519,9 +6523,9 @@
         <v>267</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="47"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
@@ -6537,11 +6541,11 @@
         <v>271</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="47"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
@@ -6557,9 +6561,9 @@
         <v>269</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="48"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8">
       <c r="D19" s="2"/>
@@ -6580,10 +6584,10 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
@@ -6600,8 +6604,8 @@
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="47"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="12" t="s">
@@ -6618,8 +6622,8 @@
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="47"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="12" t="s">
@@ -6636,8 +6640,8 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="48"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" spans="1:8">
       <c r="D24" s="2"/>
@@ -6660,10 +6664,10 @@
       <c r="F25" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="56" t="s">
         <v>386</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="41" t="s">
         <v>403</v>
       </c>
     </row>
@@ -6681,9 +6685,9 @@
         <v>305</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="51"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="16" t="s">
@@ -6699,9 +6703,9 @@
         <v>303</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="51"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="16" t="s">
@@ -6717,9 +6721,9 @@
         <v>301</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="51"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="16" t="s">
@@ -6735,9 +6739,9 @@
         <v>299</v>
       </c>
       <c r="E29" s="16"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="50"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8">
       <c r="D30" s="2"/>
@@ -6783,10 +6787,10 @@
         <v>293</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="50" t="s">
         <v>388</v>
       </c>
       <c r="H34" s="12"/>
@@ -6806,7 +6810,7 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="65"/>
-      <c r="G35" s="53"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8">
@@ -6824,7 +6828,7 @@
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="65"/>
-      <c r="G36" s="53"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
@@ -6842,7 +6846,7 @@
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="65"/>
-      <c r="G37" s="53"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8">
@@ -6860,7 +6864,7 @@
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="65"/>
-      <c r="G38" s="53"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8">
@@ -6878,7 +6882,7 @@
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="65"/>
-      <c r="G39" s="53"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8">
@@ -6896,7 +6900,7 @@
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="65"/>
-      <c r="G40" s="53"/>
+      <c r="G40" s="51"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8">
@@ -6914,7 +6918,7 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="65"/>
-      <c r="G41" s="53"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8">
@@ -6932,7 +6936,7 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="65"/>
-      <c r="G42" s="53"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8">
@@ -6950,7 +6954,7 @@
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="65"/>
-      <c r="G43" s="53"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="13" t="s">
         <v>402</v>
       </c>
@@ -6970,7 +6974,7 @@
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="65"/>
-      <c r="G44" s="53"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8">
@@ -6987,8 +6991,8 @@
         <v>295</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="54"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8">
@@ -7009,14 +7013,14 @@
       <c r="C48" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="53" t="s">
         <v>396</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="41" t="s">
         <v>390</v>
       </c>
       <c r="H48" s="16"/>
@@ -7031,12 +7035,12 @@
       <c r="C49" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="55"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="16"/>
       <c r="F49" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8">
@@ -7064,7 +7068,7 @@
       <c r="F52" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="41" t="s">
         <v>391</v>
       </c>
       <c r="H52" s="16"/>
@@ -7083,12 +7087,16 @@
         <v>360</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="50"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F34:F45"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G34:G45"/>
+    <mergeCell ref="H8:H11"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H15:H18"/>
     <mergeCell ref="D48:D49"/>
@@ -7105,10 +7113,6 @@
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="F25:F29"/>
-    <mergeCell ref="F34:F45"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G34:G45"/>
-    <mergeCell ref="H8:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7120,8 +7124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7325,7 +7329,7 @@
         <v>255</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>254</v>
+        <v>462</v>
       </c>
       <c r="E12" s="15">
         <v>10</v>
